--- a/Redes Sociales/redes_sociales.xlsx
+++ b/Redes Sociales/redes_sociales.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Discoduro\Escritorio\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB7ECCE8-3A56-4152-8FD5-3012627427EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18390" windowHeight="10425"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -19,23 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Youtube</t>
   </si>
@@ -83,12 +73,18 @@
   </si>
   <si>
     <t>Cuenta,Logo, Descripción, Publicación de presentación.</t>
+  </si>
+  <si>
+    <t>Reel de Carcinos</t>
+  </si>
+  <si>
+    <t>Reel de Energias</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -149,7 +145,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -157,7 +153,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -471,14 +466,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.85546875" customWidth="1"/>
     <col min="3" max="3" width="21.140625" customWidth="1"/>
@@ -570,7 +565,9 @@
         <v>45205</v>
       </c>
       <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
+      <c r="D6" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
@@ -585,9 +582,11 @@
         <v>45206</v>
       </c>
       <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
+      <c r="D7" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="E7" s="3"/>
-      <c r="F7" s="7" t="s">
+      <c r="F7" s="6" t="s">
         <v>13</v>
       </c>
       <c r="G7" s="6" t="s">

--- a/Redes Sociales/redes_sociales.xlsx
+++ b/Redes Sociales/redes_sociales.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Discoduro\Escritorio\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Github\Redes_Sociales\Redes Sociales\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB7ECCE8-3A56-4152-8FD5-3012627427EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Youtube</t>
   </si>
@@ -79,12 +78,21 @@
   </si>
   <si>
     <t>Reel de Energias</t>
+  </si>
+  <si>
+    <t>Elementos</t>
+  </si>
+  <si>
+    <t>Elementos Tierra</t>
+  </si>
+  <si>
+    <t>Diablillo</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -466,14 +474,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L85"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.85546875" customWidth="1"/>
     <col min="3" max="3" width="21.140625" customWidth="1"/>
@@ -600,20 +608,50 @@
       <c r="B8" s="1">
         <v>45207</v>
       </c>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B9" s="1">
         <v>45208</v>
       </c>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B10" s="1">
         <v>45209</v>
       </c>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B11" s="1">
         <v>45210</v>
+      </c>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">

--- a/Redes Sociales/redes_sociales.xlsx
+++ b/Redes Sociales/redes_sociales.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>Youtube</t>
   </si>
@@ -87,6 +87,9 @@
   </si>
   <si>
     <t>Diablillo</t>
+  </si>
+  <si>
+    <t>Reel de generadores y Reel de creación de personajes</t>
   </si>
 </sst>
 </file>
@@ -477,8 +480,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -642,7 +645,9 @@
         <v>45210</v>
       </c>
       <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
+      <c r="D11" s="4" t="s">
+        <v>21</v>
+      </c>
       <c r="E11" s="3"/>
       <c r="F11" s="6" t="s">
         <v>18</v>

--- a/Redes Sociales/redes_sociales.xlsx
+++ b/Redes Sociales/redes_sociales.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>Youtube</t>
   </si>
@@ -90,6 +90,15 @@
   </si>
   <si>
     <t>Reel de generadores y Reel de creación de personajes</t>
+  </si>
+  <si>
+    <t>Timelapse Elementos</t>
+  </si>
+  <si>
+    <t>Elemento Agua</t>
+  </si>
+  <si>
+    <t>Elemento Tierra</t>
   </si>
 </sst>
 </file>
@@ -481,7 +490,7 @@
   <dimension ref="A1:L85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -663,6 +672,18 @@
       <c r="B12" s="1">
         <v>45211</v>
       </c>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B13" s="1">

--- a/Redes Sociales/redes_sociales.xlsx
+++ b/Redes Sociales/redes_sociales.xlsx
@@ -92,13 +92,13 @@
     <t>Reel de generadores y Reel de creación de personajes</t>
   </si>
   <si>
-    <t>Timelapse Elementos</t>
-  </si>
-  <si>
     <t>Elemento Agua</t>
   </si>
   <si>
     <t>Elemento Tierra</t>
+  </si>
+  <si>
+    <t>Timelapse Fabricas</t>
   </si>
 </sst>
 </file>
@@ -490,7 +490,7 @@
   <dimension ref="A1:L85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -676,13 +676,13 @@
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
       <c r="F12" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G12" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="G12" s="6" t="s">
+      <c r="H12" s="6" t="s">
         <v>23</v>
-      </c>
-      <c r="H12" s="6" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">

--- a/Redes Sociales/redes_sociales.xlsx
+++ b/Redes Sociales/redes_sociales.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Github\Redes_Sociales\Redes Sociales\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Discoduro\Documentos\GitHub\Redes_Sociales\Redes Sociales\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1046794B-290F-496F-9323-194733583F42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="1905" yWindow="1905" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>Youtube</t>
   </si>
@@ -99,12 +100,15 @@
   </si>
   <si>
     <t>Timelapse Fabricas</t>
+  </si>
+  <si>
+    <t>Video de Tangs y de Kappa</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -486,14 +490,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.85546875" customWidth="1"/>
     <col min="3" max="3" width="21.140625" customWidth="1"/>
@@ -673,7 +677,9 @@
         <v>45211</v>
       </c>
       <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
+      <c r="D12" s="4" t="s">
+        <v>25</v>
+      </c>
       <c r="E12" s="3"/>
       <c r="F12" s="6" t="s">
         <v>24</v>

--- a/Redes Sociales/redes_sociales.xlsx
+++ b/Redes Sociales/redes_sociales.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Discoduro\Documentos\GitHub\Redes_Sociales\Redes Sociales\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1046794B-290F-496F-9323-194733583F42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2AF36B3-8C5F-429F-8A31-16C9071653B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1905" yWindow="1905" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -494,7 +494,7 @@
   <dimension ref="A1:L85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="C13" sqref="C13:H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -695,6 +695,12 @@
       <c r="B13" s="1">
         <v>45212</v>
       </c>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B14" s="1">

--- a/Redes Sociales/redes_sociales.xlsx
+++ b/Redes Sociales/redes_sociales.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Discoduro\Documentos\GitHub\Redes_Sociales\Redes Sociales\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2AF36B3-8C5F-429F-8A31-16C9071653B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B755775-7B62-439D-BC31-B344573DD86A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1905" yWindow="1905" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>Youtube</t>
   </si>
@@ -103,6 +103,9 @@
   </si>
   <si>
     <t>Video de Tangs y de Kappa</t>
+  </si>
+  <si>
+    <t>Video de Kappa</t>
   </si>
 </sst>
 </file>
@@ -494,7 +497,7 @@
   <dimension ref="A1:L85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13:H13"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -706,93 +709,137 @@
       <c r="B14" s="1">
         <v>45213</v>
       </c>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B15" s="1">
         <v>45214</v>
       </c>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B16" s="1">
         <v>45215</v>
       </c>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C16" s="3"/>
+      <c r="D16" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B17" s="1">
         <v>45216</v>
       </c>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18" s="1">
         <v>45217</v>
       </c>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" s="1">
         <v>45218</v>
       </c>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20" s="1">
         <v>45219</v>
       </c>
-    </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C20" s="3"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B21" s="1">
         <v>45220</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B22" s="1">
         <v>45221</v>
       </c>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B23" s="1">
         <v>45222</v>
       </c>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B24" s="1">
         <v>45223</v>
       </c>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B25" s="1">
         <v>45224</v>
       </c>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B26" s="1">
         <v>45225</v>
       </c>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B27" s="1">
         <v>45226</v>
       </c>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B28" s="1">
         <v>45227</v>
       </c>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B29" s="1">
         <v>45228</v>
       </c>
     </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B30" s="1">
         <v>45229</v>
       </c>
     </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B31" s="1">
         <v>45230</v>
       </c>
     </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B32" s="1">
         <v>45231</v>
       </c>

--- a/Redes Sociales/redes_sociales.xlsx
+++ b/Redes Sociales/redes_sociales.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Discoduro\Documentos\GitHub\Redes_Sociales\Redes Sociales\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Github\Redes_Sociales\Redes Sociales\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B755775-7B62-439D-BC31-B344573DD86A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -111,8 +110,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -123,6 +122,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF002060"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -172,7 +178,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -180,6 +186,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -493,14 +500,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L85"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.85546875" customWidth="1"/>
     <col min="3" max="3" width="21.140625" customWidth="1"/>
@@ -778,7 +785,7 @@
         <v>45219</v>
       </c>
       <c r="C20" s="3"/>
-      <c r="D20" s="4"/>
+      <c r="D20" s="7"/>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
@@ -788,298 +795,574 @@
       <c r="B21" s="1">
         <v>45220</v>
       </c>
+      <c r="C21" s="3"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B22" s="1">
         <v>45221</v>
       </c>
+      <c r="C22" s="3"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B23" s="1">
         <v>45222</v>
       </c>
+      <c r="C23" s="3"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B24" s="1">
         <v>45223</v>
       </c>
+      <c r="C24" s="3"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B25" s="1">
         <v>45224</v>
       </c>
+      <c r="C25" s="3"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B26" s="1">
         <v>45225</v>
       </c>
+      <c r="C26" s="3"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B27" s="1">
         <v>45226</v>
       </c>
+      <c r="C27" s="3"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B28" s="1">
         <v>45227</v>
       </c>
+      <c r="C28" s="3"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B29" s="1">
         <v>45228</v>
       </c>
+      <c r="C29" s="3"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B30" s="1">
         <v>45229</v>
       </c>
+      <c r="C30" s="3"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B31" s="1">
         <v>45230</v>
       </c>
+      <c r="C31" s="3"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B32" s="1">
         <v>45231</v>
       </c>
-    </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C32" s="3"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B33" s="1">
         <v>45232</v>
       </c>
-    </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C33" s="3"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B34" s="1">
         <v>45233</v>
       </c>
-    </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C34" s="3"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B35" s="1">
         <v>45234</v>
       </c>
-    </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C35" s="3"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3"/>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B36" s="1">
         <v>45235</v>
       </c>
-    </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C36" s="3"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="3"/>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B37" s="1">
         <v>45236</v>
       </c>
-    </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C37" s="3"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3"/>
+      <c r="H37" s="3"/>
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B38" s="1">
         <v>45237</v>
       </c>
-    </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C38" s="3"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="3"/>
+      <c r="H38" s="3"/>
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B39" s="1">
         <v>45238</v>
       </c>
-    </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C39" s="3"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="3"/>
+      <c r="H39" s="3"/>
+    </row>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B40" s="1">
         <v>45239</v>
       </c>
-    </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C40" s="3"/>
+      <c r="D40" s="7"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3"/>
+      <c r="H40" s="3"/>
+    </row>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B41" s="1">
         <v>45240</v>
       </c>
-    </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C41" s="3"/>
+      <c r="D41" s="7"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="3"/>
+      <c r="G41" s="3"/>
+      <c r="H41" s="3"/>
+    </row>
+    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B42" s="1">
         <v>45241</v>
       </c>
-    </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C42" s="3"/>
+      <c r="D42" s="7"/>
+      <c r="E42" s="3"/>
+      <c r="F42" s="3"/>
+      <c r="G42" s="3"/>
+      <c r="H42" s="3"/>
+    </row>
+    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B43" s="1">
         <v>45242</v>
       </c>
-    </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C43" s="3"/>
+      <c r="D43" s="7"/>
+      <c r="E43" s="3"/>
+      <c r="F43" s="3"/>
+      <c r="G43" s="3"/>
+      <c r="H43" s="3"/>
+    </row>
+    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B44" s="1">
         <v>45243</v>
       </c>
-    </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C44" s="3"/>
+      <c r="D44" s="7"/>
+      <c r="E44" s="3"/>
+      <c r="F44" s="3"/>
+      <c r="G44" s="3"/>
+      <c r="H44" s="3"/>
+    </row>
+    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B45" s="1">
         <v>45244</v>
       </c>
-    </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C45" s="3"/>
+      <c r="D45" s="7"/>
+      <c r="E45" s="3"/>
+      <c r="F45" s="3"/>
+      <c r="G45" s="3"/>
+      <c r="H45" s="3"/>
+    </row>
+    <row r="46" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B46" s="1">
         <v>45245</v>
       </c>
-    </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C46" s="3"/>
+      <c r="D46" s="7"/>
+      <c r="E46" s="3"/>
+      <c r="F46" s="3"/>
+      <c r="G46" s="3"/>
+      <c r="H46" s="3"/>
+    </row>
+    <row r="47" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B47" s="1">
         <v>45246</v>
       </c>
-    </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C47" s="3"/>
+      <c r="D47" s="7"/>
+      <c r="E47" s="3"/>
+      <c r="F47" s="3"/>
+      <c r="G47" s="3"/>
+      <c r="H47" s="3"/>
+    </row>
+    <row r="48" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B48" s="1">
         <v>45247</v>
       </c>
-    </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C48" s="3"/>
+      <c r="D48" s="7"/>
+      <c r="E48" s="3"/>
+      <c r="F48" s="3"/>
+      <c r="G48" s="3"/>
+      <c r="H48" s="3"/>
+    </row>
+    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B49" s="1">
         <v>45248</v>
       </c>
-    </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C49" s="3"/>
+      <c r="D49" s="7"/>
+      <c r="E49" s="3"/>
+      <c r="F49" s="3"/>
+      <c r="G49" s="3"/>
+      <c r="H49" s="3"/>
+    </row>
+    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B50" s="1">
         <v>45249</v>
       </c>
-    </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C50" s="3"/>
+      <c r="D50" s="7"/>
+      <c r="E50" s="3"/>
+      <c r="F50" s="3"/>
+      <c r="G50" s="3"/>
+      <c r="H50" s="3"/>
+    </row>
+    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B51" s="1">
         <v>45250</v>
       </c>
-    </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C51" s="3"/>
+      <c r="D51" s="7"/>
+      <c r="E51" s="3"/>
+      <c r="F51" s="3"/>
+      <c r="G51" s="3"/>
+      <c r="H51" s="3"/>
+    </row>
+    <row r="52" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B52" s="1">
         <v>45251</v>
       </c>
-    </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C52" s="3"/>
+      <c r="D52" s="7"/>
+      <c r="E52" s="3"/>
+      <c r="F52" s="3"/>
+      <c r="G52" s="3"/>
+      <c r="H52" s="3"/>
+    </row>
+    <row r="53" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B53" s="1">
         <v>45252</v>
       </c>
-    </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C53" s="3"/>
+      <c r="D53" s="7"/>
+      <c r="E53" s="3"/>
+      <c r="F53" s="3"/>
+      <c r="G53" s="3"/>
+      <c r="H53" s="3"/>
+    </row>
+    <row r="54" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B54" s="1">
         <v>45253</v>
       </c>
-    </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C54" s="3"/>
+      <c r="D54" s="7"/>
+      <c r="E54" s="3"/>
+      <c r="F54" s="3"/>
+      <c r="G54" s="3"/>
+      <c r="H54" s="3"/>
+    </row>
+    <row r="55" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B55" s="1">
         <v>45254</v>
       </c>
-    </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C55" s="3"/>
+      <c r="D55" s="7"/>
+      <c r="E55" s="3"/>
+      <c r="F55" s="3"/>
+      <c r="G55" s="3"/>
+      <c r="H55" s="3"/>
+    </row>
+    <row r="56" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B56" s="1">
         <v>45255</v>
       </c>
-    </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C56" s="3"/>
+      <c r="D56" s="7"/>
+      <c r="E56" s="3"/>
+      <c r="F56" s="3"/>
+      <c r="G56" s="3"/>
+      <c r="H56" s="3"/>
+    </row>
+    <row r="57" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B57" s="1">
         <v>45256</v>
       </c>
-    </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C57" s="3"/>
+      <c r="D57" s="7"/>
+      <c r="E57" s="3"/>
+      <c r="F57" s="3"/>
+      <c r="G57" s="3"/>
+      <c r="H57" s="3"/>
+    </row>
+    <row r="58" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B58" s="1">
         <v>45257</v>
       </c>
-    </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C58" s="3"/>
+      <c r="D58" s="7"/>
+      <c r="E58" s="3"/>
+      <c r="F58" s="3"/>
+      <c r="G58" s="3"/>
+      <c r="H58" s="3"/>
+    </row>
+    <row r="59" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B59" s="1">
         <v>45258</v>
       </c>
-    </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C59" s="3"/>
+      <c r="D59" s="7"/>
+      <c r="E59" s="3"/>
+      <c r="F59" s="3"/>
+      <c r="G59" s="3"/>
+      <c r="H59" s="3"/>
+    </row>
+    <row r="60" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B60" s="1">
         <v>45259</v>
       </c>
-    </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C60" s="3"/>
+      <c r="D60" s="7"/>
+      <c r="E60" s="3"/>
+      <c r="F60" s="3"/>
+      <c r="G60" s="3"/>
+      <c r="H60" s="3"/>
+    </row>
+    <row r="61" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B61" s="1">
         <v>45260</v>
       </c>
-    </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C61" s="3"/>
+      <c r="D61" s="7"/>
+      <c r="E61" s="3"/>
+      <c r="F61" s="3"/>
+      <c r="G61" s="3"/>
+      <c r="H61" s="3"/>
+    </row>
+    <row r="62" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B62" s="1">
         <v>45261</v>
       </c>
-    </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C62" s="3"/>
+      <c r="D62" s="7"/>
+      <c r="E62" s="3"/>
+      <c r="F62" s="3"/>
+      <c r="G62" s="3"/>
+      <c r="H62" s="3"/>
+    </row>
+    <row r="63" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B63" s="1">
         <v>45262</v>
       </c>
-    </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C63" s="3"/>
+      <c r="D63" s="7"/>
+      <c r="E63" s="3"/>
+      <c r="F63" s="3"/>
+      <c r="G63" s="3"/>
+      <c r="H63" s="3"/>
+    </row>
+    <row r="64" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B64" s="1">
         <v>45263</v>
       </c>
-    </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C64" s="3"/>
+      <c r="D64" s="7"/>
+      <c r="E64" s="3"/>
+      <c r="F64" s="3"/>
+      <c r="G64" s="3"/>
+      <c r="H64" s="3"/>
+    </row>
+    <row r="65" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B65" s="1">
         <v>45264</v>
       </c>
-    </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C65" s="3"/>
+      <c r="D65" s="7"/>
+      <c r="E65" s="3"/>
+      <c r="F65" s="3"/>
+      <c r="G65" s="3"/>
+      <c r="H65" s="3"/>
+    </row>
+    <row r="66" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B66" s="1">
         <v>45265</v>
       </c>
-    </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C66" s="3"/>
+      <c r="D66" s="7"/>
+      <c r="E66" s="3"/>
+      <c r="F66" s="3"/>
+      <c r="G66" s="3"/>
+      <c r="H66" s="3"/>
+    </row>
+    <row r="67" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B67" s="1">
         <v>45266</v>
       </c>
     </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B68" s="1">
         <v>45267</v>
       </c>
     </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B69" s="1">
         <v>45268</v>
       </c>
     </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B70" s="1">
         <v>45269</v>
       </c>
     </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B71" s="1">
         <v>45270</v>
       </c>
     </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B72" s="1">
         <v>45271</v>
       </c>
     </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B73" s="1">
         <v>45272</v>
       </c>
     </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B74" s="1">
         <v>45273</v>
       </c>
     </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B75" s="1">
         <v>45274</v>
       </c>
     </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B76" s="1">
         <v>45275</v>
       </c>
     </row>
-    <row r="77" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B77" s="1">
         <v>45276</v>
       </c>
     </row>
-    <row r="78" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B78" s="1">
         <v>45277</v>
       </c>
     </row>
-    <row r="79" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B79" s="1">
         <v>45278</v>
       </c>
     </row>
-    <row r="80" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B80" s="1">
         <v>45279</v>
       </c>

--- a/Redes Sociales/redes_sociales.xlsx
+++ b/Redes Sociales/redes_sociales.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Github\Redes_Sociales\Redes Sociales\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\noeli\Documents\GitHub\Redes_Sociales\Redes Sociales\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>Youtube</t>
   </si>
@@ -105,6 +105,12 @@
   </si>
   <si>
     <t>Video de Kappa</t>
+  </si>
+  <si>
+    <t>Se ha subido algo de redes por Noelia N. Maqueda</t>
+  </si>
+  <si>
+    <t>Vídeo de Tangs, Fénix y Kappa</t>
   </si>
 </sst>
 </file>
@@ -134,7 +140,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -165,6 +171,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -178,7 +190,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -187,6 +199,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -503,11 +516,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="F68" sqref="F68"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.85546875" customWidth="1"/>
     <col min="3" max="3" width="21.140625" customWidth="1"/>
@@ -629,6 +642,10 @@
       <c r="H7" s="6" t="s">
         <v>14</v>
       </c>
+      <c r="K7" s="8"/>
+      <c r="L7" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B8" s="1">
@@ -1301,6 +1318,9 @@
       <c r="B67" s="1">
         <v>45266</v>
       </c>
+      <c r="D67" s="8" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="68" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B68" s="1">
